--- a/ArticleManage/main_working_folder/output_excel/all_article.xlsx
+++ b/ArticleManage/main_working_folder/output_excel/all_article.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="1091">
   <si>
     <t xml:space="preserve">Artykuły </t>
   </si>
@@ -2141,9 +2141,48 @@
     <t>Data85</t>
   </si>
   <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>1877-7058</t>
+  </si>
+  <si>
+    <t>3rd International Conference on Natural Fibers: Advanced Materials for a Greener World, ICNF 2017, 21-23 June 2017, Braga, Portugal</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.proeng.2017.07.056</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1877705817328904</t>
+  </si>
+  <si>
+    <t>Valorisation of Natural Fibres from African Baobab Wastes by the Production of Activated Carbons for Adsorption of Diuron</t>
+  </si>
+  <si>
+    <t>Tchikuala, Emílio|</t>
+  </si>
+  <si>
     <t>Data86</t>
   </si>
   <si>
+    <t>2012/03/28</t>
+  </si>
+  <si>
+    <t>Journal of Chemistry</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1155/2012/120763</t>
+  </si>
+  <si>
+    <t>Synthesis of Activated Carbon Mesoporous from Coffee Waste and Its Application in Adsorption Zinc and Mercury Ions from Aqueous Solution</t>
+  </si>
+  <si>
+    <t>Giraldo, Liliana|</t>
+  </si>
+  <si>
     <t>Data87</t>
   </si>
   <si>
@@ -2801,9 +2840,6 @@
     <t>Study of CO2 Adsorption on Chemically Modified Activated Carbon With Nitric Acid and Ammonium Aqueous</t>
   </si>
   <si>
-    <t>Giraldo, Liliana|</t>
-  </si>
-  <si>
     <t>Data119</t>
   </si>
   <si>
@@ -3249,48 +3285,6 @@
   </si>
   <si>
     <t>Xing, Wei|</t>
-  </si>
-  <si>
-    <t>Data139</t>
-  </si>
-  <si>
-    <t>2012/03/28</t>
-  </si>
-  <si>
-    <t>Journal of Chemistry</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1155/2012/120763</t>
-  </si>
-  <si>
-    <t>Synthesis of Activated Carbon Mesoporous from Coffee Waste and Its Application in Adsorption Zinc and Mercury Ions from Aqueous Solution</t>
-  </si>
-  <si>
-    <t>Data140</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>407</t>
-  </si>
-  <si>
-    <t>1877-7058</t>
-  </si>
-  <si>
-    <t>3rd International Conference on Natural Fibers: Advanced Materials for a Greener World, ICNF 2017, 21-23 June 2017, Braga, Portugal</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.proeng.2017.07.056</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S1877705817328904</t>
-  </si>
-  <si>
-    <t>Valorisation of Natural Fibres from African Baobab Wastes by the Production of Activated Carbons for Adsorption of Diuron</t>
-  </si>
-  <si>
-    <t>Tchikuala, Emílio|</t>
   </si>
 </sst>
 </file>
@@ -3355,7 +3349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X142"/>
+  <dimension ref="A1:X140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6994,40 +6988,37 @@
         <v>708</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="H87" s="0" t="s">
-        <v>120</v>
+        <v>373</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>350</v>
+        <v>709</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>52</v>
+        <v>710</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>53</v>
+        <v>626</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>238</v>
+        <v>711</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>239</v>
+        <v>712</v>
       </c>
       <c r="O87" s="0" t="s">
-        <v>351</v>
+        <v>713</v>
       </c>
       <c r="P87" s="0" t="s">
-        <v>352</v>
+        <v>714</v>
       </c>
       <c r="Q87" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R87" s="0" t="s">
-        <v>353</v>
+        <v>715</v>
       </c>
       <c r="S87" s="0" t="s">
-        <v>354</v>
+        <v>716</v>
       </c>
     </row>
     <row r="88">
@@ -7035,43 +7026,31 @@
         <v>86</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>27</v>
+        <v>572</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="J88" s="0" t="s">
-        <v>212</v>
+        <v>627</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="M88" s="0" t="s">
-        <v>214</v>
+        <v>718</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>215</v>
+        <v>719</v>
       </c>
       <c r="O88" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="P88" s="0" t="s">
-        <v>217</v>
+        <v>720</v>
       </c>
       <c r="Q88" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R88" s="0" t="s">
-        <v>218</v>
+        <v>721</v>
       </c>
       <c r="S88" s="0" t="s">
-        <v>219</v>
+        <v>722</v>
       </c>
     </row>
     <row r="89">
@@ -7079,7 +7058,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>335</v>
@@ -7088,13 +7067,13 @@
         <v>39</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="M89" s="0" t="s">
         <v>668</v>
@@ -7103,19 +7082,19 @@
         <v>669</v>
       </c>
       <c r="O89" s="0" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="P89" s="0" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="Q89" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R89" s="0" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="S89" s="0" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
     </row>
     <row r="90">
@@ -7123,7 +7102,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>459</v>
@@ -7132,10 +7111,10 @@
         <v>356</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="K90" s="0" t="s">
         <v>557</v>
@@ -7147,19 +7126,19 @@
         <v>628</v>
       </c>
       <c r="O90" s="0" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="P90" s="0" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="Q90" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R90" s="0" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="S90" s="0" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
     </row>
     <row r="91">
@@ -7167,40 +7146,40 @@
         <v>89</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="K91" s="0" t="s">
         <v>636</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="O91" s="0" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="Q91" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R91" s="0" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="S91" s="0" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
     </row>
     <row r="92">
@@ -7208,7 +7187,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>572</v>
@@ -7217,19 +7196,19 @@
         <v>627</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="Q92" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R92" s="0" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="S92" s="0" t="s">
         <v>502</v>
@@ -7240,34 +7219,34 @@
         <v>91</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>385</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="O93" s="0" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="Q93" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R93" s="0" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="S93" s="0" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
     </row>
     <row r="94">
@@ -7275,7 +7254,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>627</v>
@@ -7287,22 +7266,22 @@
         <v>363</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="N94" s="0" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="O94" s="0" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="Q94" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R94" s="0" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="S94" s="0" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
     </row>
     <row r="95">
@@ -7310,34 +7289,34 @@
         <v>93</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="O95" s="0" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="Q95" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R95" s="0" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="S95" s="0" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
     </row>
     <row r="96">
@@ -7345,31 +7324,31 @@
         <v>94</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>385</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="O96" s="0" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="Q96" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R96" s="0" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="S96" s="0" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="97">
@@ -7377,7 +7356,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>73</v>
@@ -7386,22 +7365,22 @@
         <v>627</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="O97" s="0" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="Q97" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R97" s="0" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="S97" s="0" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
     </row>
     <row r="98">
@@ -7409,7 +7388,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>356</v>
@@ -7418,22 +7397,22 @@
         <v>627</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="N98" s="0" t="s">
         <v>628</v>
       </c>
       <c r="O98" s="0" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="Q98" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R98" s="0" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="S98" s="0" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
     </row>
     <row r="99">
@@ -7441,31 +7420,31 @@
         <v>97</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>62</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="O99" s="0" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="Q99" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R99" s="0" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="S99" s="0" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
     </row>
     <row r="100">
@@ -7473,31 +7452,31 @@
         <v>98</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>169</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="O100" s="0" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="Q100" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R100" s="0" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="S100" s="0" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="101">
@@ -7505,31 +7484,31 @@
         <v>99</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>667</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="O101" s="0" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="Q101" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R101" s="0" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="S101" s="0" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
     </row>
     <row r="102">
@@ -7537,40 +7516,40 @@
         <v>100</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>572</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="K102" s="0" t="s">
         <v>676</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
       <c r="N102" s="0" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="O102" s="0" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="P102" s="0" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="Q102" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R102" s="0" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="S102" s="0" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="103">
@@ -7578,7 +7557,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>356</v>
@@ -7587,22 +7566,22 @@
         <v>627</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
       <c r="N103" s="0" t="s">
         <v>628</v>
       </c>
       <c r="O103" s="0" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="Q103" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R103" s="0" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="S103" s="0" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="104">
@@ -7610,31 +7589,31 @@
         <v>102</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>169</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="O104" s="0" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
       <c r="Q104" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R104" s="0" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
       <c r="S104" s="0" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="105">
@@ -7642,31 +7621,31 @@
         <v>103</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="I105" s="0" t="s">
         <v>627</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
       <c r="N105" s="0" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="O105" s="0" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
       <c r="Q105" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R105" s="0" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="S105" s="0" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="106">
@@ -7674,31 +7653,31 @@
         <v>104</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>73</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="N106" s="0" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="O106" s="0" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="Q106" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R106" s="0" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="S106" s="0" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="107">
@@ -7706,34 +7685,34 @@
         <v>105</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>210</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
       <c r="N107" s="0" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
       <c r="O107" s="0" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="Q107" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R107" s="0" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="S107" s="0" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="108">
@@ -7741,7 +7720,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>26</v>
@@ -7759,16 +7738,16 @@
         <v>581</v>
       </c>
       <c r="O108" s="0" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
       <c r="Q108" s="0" t="s">
         <v>532</v>
       </c>
       <c r="R108" s="0" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
       <c r="S108" s="0" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="109">
@@ -7776,34 +7755,34 @@
         <v>107</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>684</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
       <c r="N109" s="0" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
       <c r="P109" s="0" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="Q109" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R109" s="0" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="S109" s="0" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="110">
@@ -7811,31 +7790,31 @@
         <v>108</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
       <c r="I110" s="0" t="s">
         <v>627</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
       <c r="N110" s="0" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="O110" s="0" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="Q110" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R110" s="0" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
       <c r="S110" s="0" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
     </row>
     <row r="111">
@@ -7843,34 +7822,34 @@
         <v>109</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>459</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
       <c r="N111" s="0" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
       <c r="P111" s="0" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
       <c r="Q111" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R111" s="0" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="S111" s="0" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="112">
@@ -7878,13 +7857,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="G112" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="J112" s="0" t="s">
         <v>335</v>
@@ -7899,19 +7878,19 @@
         <v>508</v>
       </c>
       <c r="O112" s="0" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="P112" s="0" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
       <c r="Q112" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R112" s="0" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
       <c r="S112" s="0" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
     </row>
     <row r="113">
@@ -7919,16 +7898,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
       <c r="K113" s="0" t="s">
         <v>667</v>
@@ -7940,19 +7919,19 @@
         <v>472</v>
       </c>
       <c r="O113" s="0" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
       <c r="P113" s="0" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
       <c r="Q113" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R113" s="0" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
       <c r="S113" s="0" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
     </row>
     <row r="114">
@@ -7960,34 +7939,34 @@
         <v>112</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="G114" s="0" t="s">
         <v>62</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="J114" s="0" t="s">
         <v>101</v>
       </c>
       <c r="K114" s="0" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
       <c r="N114" s="0" t="s">
-        <v>885</v>
+        <v>898</v>
       </c>
       <c r="O114" s="0" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
       <c r="Q114" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R114" s="0" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
       <c r="S114" s="0" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
     </row>
     <row r="115">
@@ -7995,31 +7974,31 @@
         <v>113</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="K115" s="0" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
       <c r="N115" s="0" t="s">
         <v>530</v>
       </c>
       <c r="O115" s="0" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
       <c r="Q115" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R115" s="0" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
       <c r="S115" s="0" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
     </row>
     <row r="116">
@@ -8027,31 +8006,31 @@
         <v>114</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>82</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
       <c r="K116" s="0" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="O116" s="0" t="s">
-        <v>899</v>
+        <v>912</v>
       </c>
       <c r="Q116" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R116" s="0" t="s">
-        <v>900</v>
+        <v>913</v>
       </c>
       <c r="S116" s="0" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
     </row>
     <row r="117">
@@ -8059,37 +8038,37 @@
         <v>115</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="K117" s="0" t="s">
         <v>557</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>905</v>
+        <v>918</v>
       </c>
       <c r="N117" s="0" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
       <c r="O117" s="0" t="s">
-        <v>907</v>
+        <v>920</v>
       </c>
       <c r="P117" s="0" t="s">
-        <v>908</v>
+        <v>921</v>
       </c>
       <c r="Q117" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R117" s="0" t="s">
-        <v>909</v>
+        <v>922</v>
       </c>
       <c r="S117" s="0" t="s">
-        <v>910</v>
+        <v>923</v>
       </c>
     </row>
     <row r="118">
@@ -8097,40 +8076,40 @@
         <v>116</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>911</v>
+        <v>924</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>92</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>912</v>
+        <v>925</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>913</v>
+        <v>926</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>914</v>
+        <v>927</v>
       </c>
       <c r="K118" s="0" t="s">
         <v>557</v>
       </c>
       <c r="N118" s="0" t="s">
-        <v>915</v>
+        <v>928</v>
       </c>
       <c r="O118" s="0" t="s">
-        <v>916</v>
+        <v>929</v>
       </c>
       <c r="P118" s="0" t="s">
-        <v>916</v>
+        <v>929</v>
       </c>
       <c r="Q118" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R118" s="0" t="s">
-        <v>917</v>
+        <v>930</v>
       </c>
       <c r="S118" s="0" t="s">
-        <v>918</v>
+        <v>931</v>
       </c>
     </row>
     <row r="119">
@@ -8138,7 +8117,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>919</v>
+        <v>932</v>
       </c>
       <c r="G119" s="0" t="s">
         <v>385</v>
@@ -8150,22 +8129,22 @@
         <v>444</v>
       </c>
       <c r="M119" s="0" t="s">
-        <v>920</v>
+        <v>933</v>
       </c>
       <c r="N119" s="0" t="s">
-        <v>921</v>
+        <v>934</v>
       </c>
       <c r="O119" s="0" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
       <c r="Q119" s="0" t="s">
         <v>532</v>
       </c>
       <c r="R119" s="0" t="s">
-        <v>923</v>
+        <v>936</v>
       </c>
       <c r="S119" s="0" t="s">
-        <v>924</v>
+        <v>937</v>
       </c>
     </row>
     <row r="120">
@@ -8173,7 +8152,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>925</v>
+        <v>938</v>
       </c>
       <c r="G120" s="0" t="s">
         <v>82</v>
@@ -8182,22 +8161,22 @@
         <v>627</v>
       </c>
       <c r="K120" s="0" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="O120" s="0" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
       <c r="Q120" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R120" s="0" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
       <c r="S120" s="0" t="s">
-        <v>929</v>
+        <v>722</v>
       </c>
     </row>
     <row r="121">
@@ -8205,37 +8184,37 @@
         <v>119</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>101</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="K121" s="0" t="s">
         <v>557</v>
       </c>
       <c r="M121" s="0" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="N121" s="0" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="O121" s="0" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="P121" s="0" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="Q121" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R121" s="0" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="S121" s="0" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
     </row>
     <row r="122">
@@ -8243,10 +8222,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>363</v>
@@ -8261,16 +8240,16 @@
         <v>530</v>
       </c>
       <c r="O122" s="0" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="Q122" s="0" t="s">
         <v>532</v>
       </c>
       <c r="R122" s="0" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="S122" s="0" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
     </row>
     <row r="123">
@@ -8278,7 +8257,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>82</v>
@@ -8287,31 +8266,31 @@
         <v>38</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="K123" s="0" t="s">
         <v>444</v>
       </c>
       <c r="N123" s="0" t="s">
-        <v>915</v>
+        <v>928</v>
       </c>
       <c r="O123" s="0" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="P123" s="0" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="Q123" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R123" s="0" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="S123" s="0" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
     </row>
     <row r="124">
@@ -8319,34 +8298,34 @@
         <v>122</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="O124" s="0" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="Q124" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R124" s="0" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="S124" s="0" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
     </row>
     <row r="125">
@@ -8354,31 +8333,31 @@
         <v>123</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
       <c r="I125" s="0" t="s">
         <v>627</v>
       </c>
       <c r="K125" s="0" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="N125" s="0" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="O125" s="0" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="Q125" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R125" s="0" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="S125" s="0" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
     </row>
     <row r="126">
@@ -8386,34 +8365,34 @@
         <v>124</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>91</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="K126" s="0" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="N126" s="0" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="O126" s="0" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="Q126" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R126" s="0" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="S126" s="0" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="127">
@@ -8421,34 +8400,34 @@
         <v>125</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="K127" s="0" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="N127" s="0" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="P127" s="0" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="Q127" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R127" s="0" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="S127" s="0" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
     </row>
     <row r="128">
@@ -8456,43 +8435,43 @@
         <v>126</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>169</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="K128" s="0" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
       <c r="M128" s="0" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="N128" s="0" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="O128" s="0" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="P128" s="0" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="Q128" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R128" s="0" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="S128" s="0" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="129">
@@ -8500,7 +8479,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="G129" s="0" t="s">
         <v>595</v>
@@ -8509,22 +8488,22 @@
         <v>627</v>
       </c>
       <c r="K129" s="0" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
       <c r="N129" s="0" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="O129" s="0" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
       <c r="Q129" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R129" s="0" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="S129" s="0" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="130">
@@ -8532,34 +8511,34 @@
         <v>128</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="G130" s="0" t="s">
         <v>62</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="J130" s="0" t="s">
         <v>627</v>
       </c>
       <c r="K130" s="0" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
       <c r="N130" s="0" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="P130" s="0" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
       <c r="Q130" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R130" s="0" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="S130" s="0" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="131">
@@ -8567,34 +8546,34 @@
         <v>129</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="N131" s="0" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="O131" s="0" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="Q131" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R131" s="0" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
       <c r="S131" s="0" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="132">
@@ -8602,34 +8581,34 @@
         <v>130</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
       <c r="K132" s="0" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="N132" s="0" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
       <c r="O132" s="0" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="Q132" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R132" s="0" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="S132" s="0" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="133">
@@ -8637,19 +8616,19 @@
         <v>131</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="H133" s="0" t="s">
         <v>120</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="K133" s="0" t="s">
         <v>487</v>
@@ -8661,19 +8640,19 @@
         <v>196</v>
       </c>
       <c r="O133" s="0" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
       <c r="P133" s="0" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="Q133" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R133" s="0" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="S133" s="0" t="s">
-        <v>1029</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="134">
@@ -8681,7 +8660,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
       <c r="G134" s="0" t="s">
         <v>356</v>
@@ -8690,22 +8669,22 @@
         <v>627</v>
       </c>
       <c r="K134" s="0" t="s">
-        <v>1031</v>
+        <v>1043</v>
       </c>
       <c r="N134" s="0" t="s">
         <v>628</v>
       </c>
       <c r="O134" s="0" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
       <c r="Q134" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R134" s="0" t="s">
-        <v>1033</v>
+        <v>1045</v>
       </c>
       <c r="S134" s="0" t="s">
-        <v>1034</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="135">
@@ -8713,7 +8692,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>1035</v>
+        <v>1047</v>
       </c>
       <c r="G135" s="0" t="s">
         <v>655</v>
@@ -8722,34 +8701,34 @@
         <v>120</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="K135" s="0" t="s">
         <v>636</v>
       </c>
       <c r="M135" s="0" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="N135" s="0" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="O135" s="0" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="P135" s="0" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
       <c r="Q135" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R135" s="0" t="s">
-        <v>1042</v>
+        <v>1054</v>
       </c>
       <c r="S135" s="0" t="s">
-        <v>1043</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="136">
@@ -8757,7 +8736,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="G136" s="0" t="s">
         <v>92</v>
@@ -8766,22 +8745,22 @@
         <v>627</v>
       </c>
       <c r="K136" s="0" t="s">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="N136" s="0" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
       <c r="O136" s="0" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
       <c r="Q136" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R136" s="0" t="s">
-        <v>1048</v>
+        <v>1060</v>
       </c>
       <c r="S136" s="0" t="s">
-        <v>1049</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="137">
@@ -8789,13 +8768,13 @@
         <v>135</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>1050</v>
+        <v>1062</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>1051</v>
+        <v>1063</v>
       </c>
       <c r="J137" s="0" t="s">
         <v>564</v>
@@ -8804,25 +8783,25 @@
         <v>667</v>
       </c>
       <c r="M137" s="0" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="N137" s="0" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
       <c r="O137" s="0" t="s">
-        <v>1054</v>
+        <v>1066</v>
       </c>
       <c r="P137" s="0" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
       <c r="Q137" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R137" s="0" t="s">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="S137" s="0" t="s">
-        <v>1057</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="138">
@@ -8830,7 +8809,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>1058</v>
+        <v>1070</v>
       </c>
       <c r="G138" s="0" t="s">
         <v>137</v>
@@ -8839,22 +8818,22 @@
         <v>627</v>
       </c>
       <c r="K138" s="0" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="N138" s="0" t="s">
-        <v>1059</v>
+        <v>1071</v>
       </c>
       <c r="O138" s="0" t="s">
-        <v>1060</v>
+        <v>1072</v>
       </c>
       <c r="Q138" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R138" s="0" t="s">
-        <v>1061</v>
+        <v>1073</v>
       </c>
       <c r="S138" s="0" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="139">
@@ -8862,16 +8841,16 @@
         <v>137</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>1063</v>
+        <v>1075</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>1064</v>
+        <v>1076</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>1065</v>
+        <v>1077</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>1066</v>
+        <v>1078</v>
       </c>
       <c r="K139" s="0" t="s">
         <v>636</v>
@@ -8883,19 +8862,19 @@
         <v>44</v>
       </c>
       <c r="O139" s="0" t="s">
-        <v>1067</v>
+        <v>1079</v>
       </c>
       <c r="P139" s="0" t="s">
-        <v>1068</v>
+        <v>1080</v>
       </c>
       <c r="Q139" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R139" s="0" t="s">
-        <v>1069</v>
+        <v>1081</v>
       </c>
       <c r="S139" s="0" t="s">
-        <v>1070</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="140">
@@ -8903,107 +8882,34 @@
         <v>138</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
       <c r="G140" s="0" t="s">
         <v>356</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>1072</v>
+        <v>1084</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="K140" s="0" t="s">
-        <v>1074</v>
+        <v>1086</v>
       </c>
       <c r="N140" s="0" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
       <c r="O140" s="0" t="s">
-        <v>1076</v>
+        <v>1088</v>
       </c>
       <c r="Q140" s="0" t="s">
         <v>34</v>
       </c>
       <c r="R140" s="0" t="s">
-        <v>1077</v>
+        <v>1089</v>
       </c>
       <c r="S140" s="0" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G141" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="I141" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="K141" s="0" t="s">
-        <v>1080</v>
-      </c>
-      <c r="N141" s="0" t="s">
-        <v>1081</v>
-      </c>
-      <c r="O141" s="0" t="s">
-        <v>1082</v>
-      </c>
-      <c r="Q141" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R141" s="0" t="s">
-        <v>1083</v>
-      </c>
-      <c r="S141" s="0" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G142" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="I142" s="0" t="s">
-        <v>1085</v>
-      </c>
-      <c r="J142" s="0" t="s">
-        <v>1086</v>
-      </c>
-      <c r="K142" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="M142" s="0" t="s">
-        <v>1087</v>
-      </c>
-      <c r="N142" s="0" t="s">
-        <v>1088</v>
-      </c>
-      <c r="O142" s="0" t="s">
-        <v>1089</v>
-      </c>
-      <c r="P142" s="0" t="s">
         <v>1090</v>
-      </c>
-      <c r="Q142" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R142" s="0" t="s">
-        <v>1091</v>
-      </c>
-      <c r="S142" s="0" t="s">
-        <v>1092</v>
       </c>
     </row>
   </sheetData>

--- a/ArticleManage/main_working_folder/output_excel/all_article.xlsx
+++ b/ArticleManage/main_working_folder/output_excel/all_article.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="1174">
   <si>
     <t xml:space="preserve">Artykuły </t>
   </si>
@@ -3291,6 +3291,249 @@
   </si>
   <si>
     <t>Xing, Wei|</t>
+  </si>
+  <si>
+    <t>Data139</t>
+  </si>
+  <si>
+    <t>2071-1050</t>
+  </si>
+  <si>
+    <t>Sustainability</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/su9101684</t>
+  </si>
+  <si>
+    <t>Adsorption of Arsenate by Nano Scaled Activated Carbon Modified by Iron and Manganese Oxides</t>
+  </si>
+  <si>
+    <t>Gallios, George P. |</t>
+  </si>
+  <si>
+    <t>Data140</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/molecules26185641</t>
+  </si>
+  <si>
+    <t>The Analysis of Pore Development and Formation of Surface Functional Groups in Bamboo-Based Activated Carbon during CO2 Activation</t>
+  </si>
+  <si>
+    <t>Phothong, Krittamet |</t>
+  </si>
+  <si>
+    <t>Data141</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
+    <t>942</t>
+  </si>
+  <si>
+    <t>1422-0067</t>
+  </si>
+  <si>
+    <t>International Journal of Molecular Sciences</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/ijms11030927</t>
+  </si>
+  <si>
+    <t>Activated Carbon Modified with Copper for Adsorption of Propanethiol</t>
+  </si>
+  <si>
+    <t>Moreno-Piraján, Juan Carlos |</t>
+  </si>
+  <si>
+    <t>Data142</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>2023/07/25</t>
+  </si>
+  <si>
+    <t>978-981-19-9439-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-981-19-9440-1_12</t>
+  </si>
+  <si>
+    <t>New Promising Modified Activated Carbons for CH4 and CO2 Adsorption</t>
+  </si>
+  <si>
+    <t>Iragena Dushime, Grace|</t>
+  </si>
+  <si>
+    <t>Data143</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>122964</t>
+  </si>
+  <si>
+    <t>2019/09/01</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.cej.2019.122964</t>
+  </si>
+  <si>
+    <t>Facile and efficient nitrogen modified porous carbon derived from sugarcane bagasse for CO2 capture: Experimental and DFT investigation of nitrogen atoms on carbon frameworks</t>
+  </si>
+  <si>
+    <t>Salawu, Omobayo|</t>
+  </si>
+  <si>
+    <t>Data144</t>
+  </si>
+  <si>
+    <t>13026</t>
+  </si>
+  <si>
+    <t>13036</t>
+  </si>
+  <si>
+    <t>ACS Sustainable Chem. Eng.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acssuschemeng.2c03029</t>
+  </si>
+  <si>
+    <t>Sustainable Food Waste Management Synthesizing Engineered Biochar for CO2 Capture</t>
+  </si>
+  <si>
+    <t>Yuan, Xiangzhou|</t>
+  </si>
+  <si>
+    <t>Data145</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.matlet.2014.11.042</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0167577X14020308</t>
+  </si>
+  <si>
+    <t>Influences of impregnation ratio and activation time on ultramicropores of peanut shell active carbons</t>
+  </si>
+  <si>
+    <t>Li, Dawei|</t>
+  </si>
+  <si>
+    <t>Data146</t>
+  </si>
+  <si>
+    <t>17450</t>
+  </si>
+  <si>
+    <t>17462</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acsomega.0c01918</t>
+  </si>
+  <si>
+    <t>Selectable Microporous Carbons Derived from Poplar Wood by Three Preparation Routes for CO2 Capture</t>
+  </si>
+  <si>
+    <t>Shao, Lishu|</t>
+  </si>
+  <si>
+    <t>Data147</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>6163</t>
+  </si>
+  <si>
+    <t>6169</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.biortech.2010.03.001</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S096085241000444X</t>
+  </si>
+  <si>
+    <t>Preparation of high surface area activated carbon from coconut shells using microwave heating</t>
+  </si>
+  <si>
+    <t>Yang, Kunbin|</t>
+  </si>
+  <si>
+    <t>Data148</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1515/pjct-2017-0025</t>
+  </si>
+  <si>
+    <t>Activated carbons prepared from hazelnut shells, walnut shells and peanut shells for high CO adsorption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewicka,  Katarzyna|</t>
+  </si>
+  <si>
+    <t>Data149</t>
+  </si>
+  <si>
+    <t>100181</t>
+  </si>
+  <si>
+    <t>2667-0224</t>
+  </si>
+  <si>
+    <t>Chemical Physics Impact</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.chphi.2023.100181</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S266702242300021X</t>
+  </si>
+  <si>
+    <t>Studies on the adsorption of Pb(II) from aqueous solutions using sugarcane bagasse-based modified activated carbon with nitric acid: Kinetic, isotherm and desorption</t>
+  </si>
+  <si>
+    <t>Somyanonthanakun, Wuttichai|</t>
+  </si>
+  <si>
+    <t>Data150</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jtice.2009.09.004</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1876107009001412</t>
+  </si>
+  <si>
+    <t>Textural characteristics of activated carbon by single step CO2 activation from coconut shells</t>
   </si>
 </sst>
 </file>
@@ -3355,7 +3598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X140"/>
+  <dimension ref="A1:X152"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8927,6 +9170,471 @@
         <v>1092</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="H141" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="K141" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="M141" s="0" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N141" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="O141" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Q141" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="R141" s="0" t="s">
+        <v>1097</v>
+      </c>
+      <c r="S141" s="0" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="H142" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="K142" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="M142" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="N142" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="O142" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q142" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="R142" s="0" t="s">
+        <v>1101</v>
+      </c>
+      <c r="S142" s="0" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H143" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="I143" s="0" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J143" s="0" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K143" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="M143" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="N143" s="0" t="s">
+        <v>1107</v>
+      </c>
+      <c r="O143" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Q143" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="R143" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="S143" s="0" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="I144" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="J144" s="0" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K144" s="0" t="s">
+        <v>1113</v>
+      </c>
+      <c r="M144" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O144" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="R144" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="S144" s="0" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G145" s="0" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I145" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K145" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="N145" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="O145" s="0" t="s">
+        <v>1122</v>
+      </c>
+      <c r="Q145" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R145" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="S145" s="0" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="H146" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="I146" s="0" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J146" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K146" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="N146" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="O146" s="0" t="s">
+        <v>1129</v>
+      </c>
+      <c r="P146" s="0" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q146" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R146" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="S146" s="0" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G147" s="0" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I147" s="0" t="s">
+        <v>1134</v>
+      </c>
+      <c r="J147" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K147" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="M147" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="N147" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="O147" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="P147" s="0" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Q147" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R147" s="0" t="s">
+        <v>1138</v>
+      </c>
+      <c r="S147" s="0" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G148" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="H148" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="I148" s="0" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J148" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K148" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="N148" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="O148" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="P148" s="0" t="s">
+        <v>1143</v>
+      </c>
+      <c r="Q148" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R148" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="S148" s="0" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G149" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H149" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="I149" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J149" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="K149" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="M149" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="N149" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="O149" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="P149" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="Q149" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R149" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="S149" s="0" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G150" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H150" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="I150" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="J150" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K150" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="N150" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="O150" s="0" t="s">
+        <v>1157</v>
+      </c>
+      <c r="P150" s="0" t="s">
+        <v>1157</v>
+      </c>
+      <c r="Q150" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R150" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="S150" s="0" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G151" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="I151" s="0" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K151" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="M151" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="N151" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="O151" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="P151" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Q151" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R151" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="S151" s="0" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G152" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="H152" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="I152" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J152" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K152" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="M152" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="N152" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="O152" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="P152" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Q152" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R152" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="S152" s="0" t="s">
+        <v>1153</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/ArticleManage/main_working_folder/output_excel/all_article.xlsx
+++ b/ArticleManage/main_working_folder/output_excel/all_article.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="1226">
   <si>
     <t xml:space="preserve">Artykuły </t>
   </si>
@@ -3534,6 +3534,162 @@
   </si>
   <si>
     <t>Textural characteristics of activated carbon by single step CO2 activation from coconut shells</t>
+  </si>
+  <si>
+    <t>Data151</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>108135</t>
+  </si>
+  <si>
+    <t>2352-152X</t>
+  </si>
+  <si>
+    <t>Journal of Energy Storage</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.est.2023.108135</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2352152X23015323</t>
+  </si>
+  <si>
+    <t>High-performance activated carbon fiber derived from pineapple leaf fiber via Co(II)-assisted preparation revealed surprising capacitive-pseudocapacitive synergistic charge storage</t>
+  </si>
+  <si>
+    <t>Meekati, Tanawut|</t>
+  </si>
+  <si>
+    <t>Data152</t>
+  </si>
+  <si>
+    <t>211048</t>
+  </si>
+  <si>
+    <t>1452-3981</t>
+  </si>
+  <si>
+    <t>International Journal of Electrochemical Science</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.20964/2021.10.26</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1452398123035617</t>
+  </si>
+  <si>
+    <t>Preparation of Activated Carbon Derived from Tobacco and its Electrochemical Properties</t>
+  </si>
+  <si>
+    <t>Li, Zhiqian|</t>
+  </si>
+  <si>
+    <t>Data153</t>
+  </si>
+  <si>
+    <t>210371</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.20964/2021.03.33</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1452398123029826</t>
+  </si>
+  <si>
+    <t>Preparation of Activated Carbon Derived From Licorice Residue and its Electrochemical Properties</t>
+  </si>
+  <si>
+    <t>Yi, Kaiqiang|</t>
+  </si>
+  <si>
+    <t>Data154</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2076-3298</t>
+  </si>
+  <si>
+    <t>Environments</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/environments11010002</t>
+  </si>
+  <si>
+    <t>Effect of Bark Biochars on Properties of Steam-Activated Carbons</t>
+  </si>
+  <si>
+    <t>Şen, Umut |</t>
+  </si>
+  <si>
+    <t>Data155</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.fuel.2016.03.088</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0016236116301302</t>
+  </si>
+  <si>
+    <t>Facile, low-cost, and sustainable preparation of hierarchical porous carbons from ion exchange resin: An improved potassium activation strategy</t>
+  </si>
+  <si>
+    <t>Wang, Baodeng|</t>
+  </si>
+  <si>
+    <t>Data156</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>167517</t>
+  </si>
+  <si>
+    <t>0304-8853</t>
+  </si>
+  <si>
+    <t>Journal of Magnetism and Magnetic Materials</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jmmm.2020.167517</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0304885320324847</t>
+  </si>
+  <si>
+    <t>One-step preparation of environment-oriented magnetic coal-based activated carbon with high adsorption and magnetic separation performance</t>
+  </si>
+  <si>
+    <t>Liu, Yin|</t>
+  </si>
+  <si>
+    <t>Data157</t>
+  </si>
+  <si>
+    <t>7608</t>
+  </si>
+  <si>
+    <t>7622</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.20964/2019.08.38</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1452398123013652</t>
+  </si>
+  <si>
+    <t>Preparation and Activation of Corn Straw-Based Carbon and Its Application in Supercapacitors</t>
+  </si>
+  <si>
+    <t>Shi, Gaofeng|</t>
   </si>
 </sst>
 </file>
@@ -3598,7 +3754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X152"/>
+  <dimension ref="A1:X159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9635,6 +9791,284 @@
         <v>1153</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G153" s="0" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I153" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K153" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="M153" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N153" s="0" t="s">
+        <v>1178</v>
+      </c>
+      <c r="O153" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="P153" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q153" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R153" s="0" t="s">
+        <v>1181</v>
+      </c>
+      <c r="S153" s="0" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G154" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H154" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="I154" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K154" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="M154" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="N154" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O154" s="0" t="s">
+        <v>1187</v>
+      </c>
+      <c r="P154" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="Q154" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R154" s="0" t="s">
+        <v>1189</v>
+      </c>
+      <c r="S154" s="0" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G155" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H155" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="I155" s="0" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K155" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="M155" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="N155" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O155" s="0" t="s">
+        <v>1193</v>
+      </c>
+      <c r="P155" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="Q155" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R155" s="0" t="s">
+        <v>1195</v>
+      </c>
+      <c r="S155" s="0" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G156" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H156" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K156" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M156" s="0" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N156" s="0" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O156" s="0" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Q156" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="R156" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="S156" s="0" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="I157" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="J157" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K157" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="M157" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="N157" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="O157" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="P157" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="Q157" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R157" s="0" t="s">
+        <v>1208</v>
+      </c>
+      <c r="S157" s="0" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G158" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I158" s="0" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K158" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="M158" s="0" t="s">
+        <v>1213</v>
+      </c>
+      <c r="N158" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="O158" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="P158" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="Q158" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R158" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="S158" s="0" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G159" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="H159" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I159" s="0" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J159" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K159" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="M159" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="N159" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="O159" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P159" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="Q159" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R159" s="0" t="s">
+        <v>1224</v>
+      </c>
+      <c r="S159" s="0" t="s">
+        <v>1225</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
